--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -112,7 +112,7 @@
     <t>最大理智值</t>
   </si>
   <si>
-    <t>理智 * 理智转换系数</t>
+    <t>Sanity*Sanity_C</t>
   </si>
   <si>
     <t>HpMax_P</t>
@@ -121,7 +121,7 @@
     <t>生命值_阳气</t>
   </si>
   <si>
-    <t>体质 * 体质转换系数</t>
+    <t>Physique*Physique_C</t>
   </si>
   <si>
     <t>HpMax_S</t>
@@ -130,7 +130,7 @@
     <t>生命值_阴气</t>
   </si>
   <si>
-    <t>感知 * 感知转换系数</t>
+    <t>Perceive*Perceive_C</t>
   </si>
   <si>
     <t>Atk_P</t>
@@ -139,7 +139,7 @@
     <t>攻击力_阳气</t>
   </si>
   <si>
-    <t>力量 * 力量转换系数</t>
+    <t>Power*Power_C</t>
   </si>
   <si>
     <t>Atk_S</t>
@@ -148,7 +148,7 @@
     <t>攻击力_阴气</t>
   </si>
   <si>
-    <t>灵能 * 灵能转换系数</t>
+    <t>Psionic*Psionic_C</t>
   </si>
   <si>
     <t>FirstStrike</t>
@@ -157,7 +157,7 @@
     <t>先攻</t>
   </si>
   <si>
-    <t>速度 * 速度转换系数</t>
+    <t>Speed*Speed_C</t>
   </si>
   <si>
     <t>Shield</t>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>灵能转换系数</t>
+  </si>
+  <si>
+    <t>Speed_C</t>
+  </si>
+  <si>
+    <t>速度转换系数</t>
   </si>
 </sst>
 </file>
@@ -282,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -317,21 +323,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,107 +453,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -468,187 +474,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,21 +684,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -703,6 +694,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,8 +736,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,22 +745,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -765,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,31 +783,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,104 +816,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,9 +922,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1268,10 +1271,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1571,8 +1574,8 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1589,8 +1592,8 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1607,8 +1610,8 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="1">
@@ -1623,8 +1626,8 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="1">
@@ -1639,8 +1642,8 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1657,8 +1660,8 @@
       <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="1">
@@ -1673,8 +1676,8 @@
       <c r="F24" s="4">
         <v>1.5</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="1">
@@ -1689,8 +1692,8 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="1">
@@ -1705,8 +1708,8 @@
       <c r="F26" s="4">
         <v>5</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="1">
@@ -1721,8 +1724,8 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="1">
@@ -1737,8 +1740,8 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="1">
@@ -1753,8 +1756,8 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="1">
@@ -1769,8 +1772,8 @@
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1787,8 +1790,8 @@
       <c r="F31" s="4">
         <v>0</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1805,10 +1808,10 @@
       <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="1">
@@ -1823,10 +1826,10 @@
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="1">
@@ -1841,10 +1844,10 @@
       <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="1">
@@ -1859,10 +1862,10 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="1">
@@ -1877,10 +1880,28 @@
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="4">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="27195" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -31,10 +31,7 @@
     <t>计算公式</t>
   </si>
   <si>
-    <t>隐藏在列表中</t>
-  </si>
-  <si>
-    <t>有值才显示</t>
+    <t>公式等级（计算顺序）</t>
   </si>
   <si>
     <t>技能描述</t>
@@ -52,10 +49,7 @@
     <t>AttrFormula</t>
   </si>
   <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>ShowJudge</t>
+    <t>FormulaLevel</t>
   </si>
   <si>
     <t>Description</t>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>护盾值</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>Atk_R</t>
@@ -288,8 +279,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -323,14 +314,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,22 +405,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,91 +449,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -474,19 +465,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +609,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,145 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +675,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -698,17 +713,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,39 +737,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -771,10 +762,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,137 +774,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,6 +913,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1271,25 +1265,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.2222222222222" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.8888888888889" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.225" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.8916666666667" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1297,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" ht="18" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1319,60 +1311,51 @@
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
+    </row>
+    <row r="4" ht="18" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+    </row>
+    <row r="5" ht="18" spans="3:9">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:6">
@@ -1380,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
@@ -1394,10 +1377,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1408,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -1422,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1436,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1450,458 +1433,416 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:8">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
+        <v>39</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
+        <v>42</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
+        <v>45</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="3:9">
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="3:9">
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="3:9">
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="4">
         <v>1.5</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="3:9">
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="3:9">
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" s="4">
         <v>5</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="3:9">
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="3:9">
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="3:9">
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="3:9">
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9">
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="3:9">
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="3:9">
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="3:9">
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="3:9">
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="4">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="H37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>名字（枚举）</t>
   </si>
   <si>
     <t>名字</t>
@@ -279,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -306,6 +309,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -314,14 +332,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +361,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -343,36 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -381,51 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -434,17 +432,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,6 +659,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,6 +688,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,17 +742,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,51 +759,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,137 +777,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,9 +916,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1268,14 +1268,14 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="18" spans="3:9">
@@ -1317,45 +1317,45 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="18" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:6">
@@ -1363,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
@@ -1377,10 +1377,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1391,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -1405,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1419,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1433,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
@@ -1447,18 +1447,18 @@
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1467,18 +1467,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="5">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1487,18 +1487,18 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="5">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1507,18 +1507,18 @@
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="5">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1527,18 +1527,18 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="5">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1547,18 +1547,18 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="5">
+        <v>46</v>
+      </c>
+      <c r="H17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1567,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4">
         <v>5</v>
@@ -1651,10 +1651,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
         <v>1.5</v>
@@ -1665,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
@@ -1679,10 +1679,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4">
         <v>5</v>
@@ -1693,10 +1693,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
@@ -1707,10 +1707,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="4">
         <v>5</v>
@@ -1721,10 +1721,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -1735,10 +1735,10 @@
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="4">
         <v>20</v>
@@ -1777,10 +1777,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -1791,10 +1791,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -1805,10 +1805,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1819,10 +1819,10 @@
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="27195" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -282,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -311,12 +311,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -325,14 +326,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +378,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,84 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -468,49 +468,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,133 +594,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +659,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,10 +729,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -736,24 +754,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -765,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,31 +777,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,100 +816,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13140"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -40,7 +40,7 @@
     <t>技能描述</t>
   </si>
   <si>
-    <t>AttributeName</t>
+    <t>AttrType</t>
   </si>
   <si>
     <t>EnumName</t>
@@ -55,28 +55,43 @@
     <t>FormulaLevel</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>testbool</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>enum_AttrType</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>Sanity</t>
   </si>
   <si>
     <t>理智</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
     <t>力量</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>Psionic</t>
@@ -282,8 +297,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -307,6 +322,111 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -319,31 +439,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,102 +462,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -468,13 +483,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,49 +621,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,103 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,35 +679,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +703,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -723,15 +732,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,8 +754,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,149 +780,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,6 +932,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1265,23 +1287,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.87962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.225" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.8916666666667" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.2222222222222" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1289,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="3:9">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1311,8 +1334,11 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="18" spans="3:9">
+      <c r="J3" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1334,515 +1360,559 @@
       <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="18" spans="3:9">
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+      <c r="J6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
+      <c r="J8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="3:6">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:6">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="3:8">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:8">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="3:8">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="3:10">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:8">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="3:10">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:6">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="3:10">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="3:10">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="3:10">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="3:10">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:6">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="3:10">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F28" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="3:6">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="3:10">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:6">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="3:10">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:6">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="3:10">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:6">
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="3:10">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F32" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="3:6">
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="3:10">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="3:6">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="3:10">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="3:6">
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="3:10">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:6">
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="3:10">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="3:8">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="3:10">
       <c r="C37" s="4">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
+      <c r="J37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -55,10 +55,7 @@
     <t>FormulaLevel</t>
   </si>
   <si>
-    <t>Description1</t>
-  </si>
-  <si>
-    <t>testbool</t>
+    <t>Description</t>
   </si>
   <si>
     <t>int</t>
@@ -73,25 +70,16 @@
     <t>float</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>Sanity</t>
   </si>
   <si>
     <t>理智</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
     <t>力量</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Psionic</t>
@@ -332,6 +320,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -342,7 +358,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +434,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -364,98 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,19 +471,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,25 +603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,120 +639,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -658,12 +652,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +662,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,11 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +715,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,24 +754,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,137 +780,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,13 +920,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1287,24 +1268,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7.87962962962963" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.88333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.2222222222222" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.8888888888889" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.225" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1312,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" ht="18" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1334,11 +1314,8 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
+    </row>
+    <row r="4" ht="18" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,559 +1337,515 @@
       <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+    </row>
+    <row r="5" ht="18" spans="3:9">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:6">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:10">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:10">
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="3:10">
+    </row>
+    <row r="10" spans="3:6">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="3:10">
+    </row>
+    <row r="11" spans="3:6">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="3:10">
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="3:10">
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="3:10">
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="3:10">
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="3:10">
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="3:10">
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="3:10">
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="3:10">
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="3:10">
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="3:10">
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="3:10">
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="3:10">
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="3:10">
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F24" s="4">
         <v>1.5</v>
       </c>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="3:10">
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="3:10">
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4">
         <v>5</v>
       </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="3:10">
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="3:10">
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="3:10">
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="3:10">
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="3:10">
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="3:10">
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="3:10">
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="3:10">
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="3:10">
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="3:10">
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="3:10">
+    </row>
+    <row r="37" spans="3:8">
       <c r="C37" s="4">
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="J37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -312,6 +312,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -321,21 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +353,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,37 +374,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,6 +384,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,16 +404,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,6 +427,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,13 +455,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -471,85 +471,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,97 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,30 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -722,8 +698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,7 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +728,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -768,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,133 +780,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,18 +1271,18 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="7.88333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.87962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.225" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.2222222222222" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="3:9">
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="3:9">
+    <row r="4" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="3:9">
+    <row r="5" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
+    <sheet name="#list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -285,9 +285,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -313,9 +313,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,10 +356,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,59 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -405,7 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,15 +428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,13 +436,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,13 +471,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,25 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,139 +561,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +676,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,15 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -724,30 +748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,133 +780,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +989,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1270,19 +1270,19 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7.87962962962963" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.88333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.225" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" ht="18" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" ht="18" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" ht="18" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
+  </si>
+  <si>
+    <t>ExportClass</t>
+  </si>
+  <si>
+    <t>AttrData</t>
   </si>
   <si>
     <t>Id</t>
@@ -285,8 +291,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -312,6 +318,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -326,15 +347,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,9 +378,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,70 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,21 +461,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -471,19 +477,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,79 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,79 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +668,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,39 +693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +721,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -754,11 +747,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,10 +774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,133 +786,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +995,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1271,18 +1277,18 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="7.88333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.5092592592593" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23.225" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.2222222222222" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1292,73 +1298,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="3:9">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="18" spans="3:9">
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="18" spans="3:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:6">
@@ -1366,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
@@ -1380,10 +1394,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1394,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -1408,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1422,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1436,10 +1450,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
@@ -1450,16 +1464,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1470,16 +1484,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1490,16 +1504,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1510,16 +1524,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1530,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -1550,16 +1564,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1570,10 +1584,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1584,10 +1598,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -1598,10 +1612,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1612,10 +1626,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1626,10 +1640,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1640,10 +1654,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F23" s="4">
         <v>5</v>
@@ -1654,10 +1668,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4">
         <v>1.5</v>
@@ -1668,10 +1682,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
@@ -1682,10 +1696,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4">
         <v>5</v>
@@ -1696,10 +1710,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
@@ -1710,10 +1724,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F28" s="4">
         <v>5</v>
@@ -1724,10 +1738,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -1738,10 +1752,10 @@
         <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1752,10 +1766,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1766,10 +1780,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F32" s="4">
         <v>20</v>
@@ -1780,10 +1794,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -1794,10 +1808,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -1808,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1822,10 +1836,10 @@
         <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1836,10 +1850,10 @@
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="9695" windowHeight="9275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
+    <sheet name="&amp;AttrType" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -284,6 +285,48 @@
   </si>
   <si>
     <t>速度转换系数</t>
+  </si>
+  <si>
+    <t>ExportEnum</t>
+  </si>
+  <si>
+    <t>属性种类枚举</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>以下属性由等级决定</t>
+  </si>
+  <si>
+    <t>以下为一级属性</t>
+  </si>
+  <si>
+    <t>以下为二级属性</t>
+  </si>
+  <si>
+    <t>以下为三级属性</t>
+  </si>
+  <si>
+    <t>以下为转换系数</t>
+  </si>
+  <si>
+    <t>以下为其他属性</t>
+  </si>
+  <si>
+    <t>CauseDamage</t>
+  </si>
+  <si>
+    <t>造成伤害</t>
   </si>
 </sst>
 </file>
@@ -292,8 +335,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -318,21 +361,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -347,9 +375,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +393,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,18 +428,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,14 +469,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -427,7 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,14 +486,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,187 +520,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,6 +711,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,24 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -748,8 +782,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,16 +802,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,146 +829,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1307,71 +1353,71 @@
       </c>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1866,4 +1912,526 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="4.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.1111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="1">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9695" windowHeight="9275" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="#list" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>速度转换系数</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <t>ExportEnum</t>
@@ -334,12 +337,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,13 +364,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -376,14 +394,20 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -399,14 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +431,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +448,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,25 +493,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,8 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +530,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -527,180 +711,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,41 +748,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,11 +774,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,137 +839,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,6 +982,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1320,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -1907,6 +1920,11 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1919,7 +1937,7 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1944,13 +1962,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1962,13 +1980,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1978,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2000,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2068,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2214,7 +2232,7 @@
         <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2334,7 +2352,7 @@
         <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2415,7 +2433,7 @@
         <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -2423,10 +2441,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="4"/>
     </row>

--- a/Assets/Other/Excel/AttrConfig.xlsx
+++ b/Assets/Other/Excel/AttrConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -77,24 +77,36 @@
     <t>float</t>
   </si>
   <si>
+    <t>stringArray</t>
+  </si>
+  <si>
     <t>Sanity</t>
   </si>
   <si>
     <t>理智</t>
   </si>
   <si>
+    <t>理智是对魂魄保持清醒和稳定能力的评定。主要影响{#1}、{#2}、{#3}。,魂魄浓度,</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
     <t>力量</t>
   </si>
   <si>
+    <t>力量是对肉体强度和爆发力的评定。主要影响{#1}、{#2}、{#3}。,躯壳攻击力,</t>
+  </si>
+  <si>
     <t>Psionic</t>
   </si>
   <si>
     <t>灵能</t>
   </si>
   <si>
+    <t>灵能是对魂魄强度和爆发力的评定。主要影响{#1}、{#2}、{#3}。,躯壳攻击力,</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -116,205 +128,259 @@
     <t>SanMax</t>
   </si>
   <si>
+    <t>最大神智</t>
+  </si>
+  <si>
+    <t>Sanity*Sanity_C</t>
+  </si>
+  <si>
+    <t>指此魂魄保持自我清醒的能力，即其神智。记忆等强化将会占据神智，神智损伤过多会使其失效。</t>
+  </si>
+  <si>
+    <t>HpMax_P</t>
+  </si>
+  <si>
+    <t>躯壳完整度</t>
+  </si>
+  <si>
+    <t>Physique*Physique_C</t>
+  </si>
+  <si>
+    <t>指此躯壳的综合完整程度，以及能承受伤害的最大值。</t>
+  </si>
+  <si>
+    <t>HpMax_S</t>
+  </si>
+  <si>
+    <t>魂魄完整度</t>
+  </si>
+  <si>
+    <t>Perceive*Perceive_C</t>
+  </si>
+  <si>
+    <t>指此魂魄的综合完整程度，以及能承受伤害的最大值。</t>
+  </si>
+  <si>
+    <t>Atk_P</t>
+  </si>
+  <si>
+    <t>攻击力-躯壳</t>
+  </si>
+  <si>
+    <t>Power*Power_C</t>
+  </si>
+  <si>
+    <t>指此躯壳发动攻击时能造成的伤害。</t>
+  </si>
+  <si>
+    <t>Atk_S</t>
+  </si>
+  <si>
+    <t>攻击力-魂魄</t>
+  </si>
+  <si>
+    <t>Psionic*Psionic_C</t>
+  </si>
+  <si>
+    <t>指此魂魄发动攻击时能造成的伤害。</t>
+  </si>
+  <si>
+    <t>FirstStrike</t>
+  </si>
+  <si>
+    <t>先攻</t>
+  </si>
+  <si>
+    <t>Speed*Speed_C</t>
+  </si>
+  <si>
+    <t>指战斗中的出手顺序等级。</t>
+  </si>
+  <si>
+    <t>Shield_P</t>
+  </si>
+  <si>
+    <t>躯壳护盾</t>
+  </si>
+  <si>
+    <t>指能够为躯壳抵挡伤害的效果。</t>
+  </si>
+  <si>
+    <t>Shield_S</t>
+  </si>
+  <si>
+    <t>魂魄护盾</t>
+  </si>
+  <si>
+    <t>指能够为魂魄抵挡伤害的效果。</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>护盾值</t>
+  </si>
+  <si>
+    <t>指能够同时为躯壳或魂魄抵挡伤害的效果。</t>
+  </si>
+  <si>
+    <t>Atk_R</t>
+  </si>
+  <si>
+    <t>攻击力_真实</t>
+  </si>
+  <si>
+    <t>Def_P</t>
+  </si>
+  <si>
+    <t>防御力_阳气</t>
+  </si>
+  <si>
+    <t>Def_S</t>
+  </si>
+  <si>
+    <t>防御力_阴气</t>
+  </si>
+  <si>
+    <t>Def_R</t>
+  </si>
+  <si>
+    <t>防御力_真实</t>
+  </si>
+  <si>
+    <t>Critical_P</t>
+  </si>
+  <si>
+    <t>暴击概率</t>
+  </si>
+  <si>
+    <t>Critical_E</t>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+  </si>
+  <si>
+    <t>Dodge_P</t>
+  </si>
+  <si>
+    <t>闪避概率</t>
+  </si>
+  <si>
+    <t>Parry_P</t>
+  </si>
+  <si>
+    <t>格挡概率</t>
+  </si>
+  <si>
+    <t>Sneak_P</t>
+  </si>
+  <si>
+    <t>潜行概率</t>
+  </si>
+  <si>
+    <t>Aware_P</t>
+  </si>
+  <si>
+    <t>察觉概率</t>
+  </si>
+  <si>
+    <t>Resist_P</t>
+  </si>
+  <si>
+    <t>抵抗概率</t>
+  </si>
+  <si>
+    <t>Coin_E</t>
+  </si>
+  <si>
+    <t>货币倍率</t>
+  </si>
+  <si>
+    <t>Good_P</t>
+  </si>
+  <si>
+    <t>战利品概率</t>
+  </si>
+  <si>
+    <t>Sanity_C</t>
+  </si>
+  <si>
+    <t>理智转换系数</t>
+  </si>
+  <si>
+    <t>Physique_C</t>
+  </si>
+  <si>
+    <t>体质转换系数</t>
+  </si>
+  <si>
+    <t>Perceive_C</t>
+  </si>
+  <si>
+    <t>感知转换系数</t>
+  </si>
+  <si>
+    <t>Power_C</t>
+  </si>
+  <si>
+    <t>力量转换系数</t>
+  </si>
+  <si>
+    <t>Psionic_C</t>
+  </si>
+  <si>
+    <t>灵能转换系数</t>
+  </si>
+  <si>
+    <t>Speed_C</t>
+  </si>
+  <si>
+    <t>速度转换系数</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>ExportEnum</t>
+  </si>
+  <si>
+    <t>属性种类枚举</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>以下属性由等级决定</t>
+  </si>
+  <si>
+    <t>以下为一级属性</t>
+  </si>
+  <si>
+    <t>以下为二级属性</t>
+  </si>
+  <si>
     <t>最大理智值</t>
   </si>
   <si>
-    <t>Sanity*Sanity_C</t>
-  </si>
-  <si>
-    <t>HpMax_P</t>
-  </si>
-  <si>
     <t>生命值_阳气</t>
   </si>
   <si>
-    <t>Physique*Physique_C</t>
-  </si>
-  <si>
-    <t>HpMax_S</t>
-  </si>
-  <si>
     <t>生命值_阴气</t>
   </si>
   <si>
-    <t>Perceive*Perceive_C</t>
-  </si>
-  <si>
-    <t>Atk_P</t>
-  </si>
-  <si>
     <t>攻击力_阳气</t>
   </si>
   <si>
-    <t>Power*Power_C</t>
-  </si>
-  <si>
-    <t>Atk_S</t>
-  </si>
-  <si>
     <t>攻击力_阴气</t>
-  </si>
-  <si>
-    <t>Psionic*Psionic_C</t>
-  </si>
-  <si>
-    <t>FirstStrike</t>
-  </si>
-  <si>
-    <t>先攻</t>
-  </si>
-  <si>
-    <t>Speed*Speed_C</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>护盾值</t>
-  </si>
-  <si>
-    <t>Atk_R</t>
-  </si>
-  <si>
-    <t>攻击力_真实</t>
-  </si>
-  <si>
-    <t>Def_P</t>
-  </si>
-  <si>
-    <t>防御力_阳气</t>
-  </si>
-  <si>
-    <t>Def_S</t>
-  </si>
-  <si>
-    <t>防御力_阴气</t>
-  </si>
-  <si>
-    <t>Def_R</t>
-  </si>
-  <si>
-    <t>防御力_真实</t>
-  </si>
-  <si>
-    <t>Critical_P</t>
-  </si>
-  <si>
-    <t>暴击概率</t>
-  </si>
-  <si>
-    <t>Critical_E</t>
-  </si>
-  <si>
-    <t>暴击倍率</t>
-  </si>
-  <si>
-    <t>Dodge_P</t>
-  </si>
-  <si>
-    <t>闪避概率</t>
-  </si>
-  <si>
-    <t>Parry_P</t>
-  </si>
-  <si>
-    <t>格挡概率</t>
-  </si>
-  <si>
-    <t>Sneak_P</t>
-  </si>
-  <si>
-    <t>潜行概率</t>
-  </si>
-  <si>
-    <t>Aware_P</t>
-  </si>
-  <si>
-    <t>察觉概率</t>
-  </si>
-  <si>
-    <t>Resist_P</t>
-  </si>
-  <si>
-    <t>抵抗概率</t>
-  </si>
-  <si>
-    <t>Coin_E</t>
-  </si>
-  <si>
-    <t>货币倍率</t>
-  </si>
-  <si>
-    <t>Good_P</t>
-  </si>
-  <si>
-    <t>战利品概率</t>
-  </si>
-  <si>
-    <t>Sanity_C</t>
-  </si>
-  <si>
-    <t>理智转换系数</t>
-  </si>
-  <si>
-    <t>Physique_C</t>
-  </si>
-  <si>
-    <t>体质转换系数</t>
-  </si>
-  <si>
-    <t>Perceive_C</t>
-  </si>
-  <si>
-    <t>感知转换系数</t>
-  </si>
-  <si>
-    <t>Power_C</t>
-  </si>
-  <si>
-    <t>力量转换系数</t>
-  </si>
-  <si>
-    <t>Psionic_C</t>
-  </si>
-  <si>
-    <t>灵能转换系数</t>
-  </si>
-  <si>
-    <t>Speed_C</t>
-  </si>
-  <si>
-    <t>速度转换系数</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>ExportEnum</t>
-  </si>
-  <si>
-    <t>属性种类枚举</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>以下属性由等级决定</t>
-  </si>
-  <si>
-    <t>以下为一级属性</t>
-  </si>
-  <si>
-    <t>以下为二级属性</t>
   </si>
   <si>
     <t>以下为三级属性</t>
@@ -337,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -372,7 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +448,105 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,28 +567,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,84 +580,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -530,19 +596,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,163 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,15 +787,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,26 +807,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,24 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -821,16 +843,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,137 +905,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,9 +1047,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1333,22 +1408,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="14.5092592592593" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.88888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
     <col min="7" max="8" width="23.2222222222222" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="94" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1366,139 +1441,149 @@
       </c>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+      <c r="I6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
+      <c r="I7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
+      <c r="I8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1509,186 +1594,211 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
+      <c r="I12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:8">
+      <c r="I13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="3:8">
+      <c r="I14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:8">
+      <c r="I15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="I16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="1">
-        <v>13</v>
-      </c>
+      <c r="I17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="1"/>
       <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="1">
-        <v>14</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="1"/>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="H19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
       </c>
+      <c r="I20" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -1696,13 +1806,13 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1710,41 +1820,41 @@
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F23" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F24" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
@@ -1752,27 +1862,27 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F26" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
@@ -1780,13 +1890,13 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4">
         <v>5</v>
@@ -1794,13 +1904,13 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -1808,121 +1918,149 @@
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F32" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F34" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="4">
-        <v>32</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="1">
+        <v>30</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="6" t="s">
-        <v>90</v>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="1">
+        <v>31</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="4">
+        <v>32</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1962,13 +2100,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1980,13 +2118,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1996,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2012,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2028,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2041,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2054,10 +2192,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2067,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2080,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2096,10 +2234,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2109,10 +2247,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2122,10 +2260,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2135,10 +2273,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2148,10 +2286,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2161,10 +2299,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2174,10 +2312,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2187,10 +2325,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2200,10 +2338,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2213,10 +2351,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2226,13 +2364,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2242,10 +2380,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2255,10 +2393,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2268,10 +2406,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2281,10 +2419,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2294,10 +2432,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2307,10 +2445,10 @@
         <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2320,10 +2458,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2333,10 +2471,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2346,13 +2484,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2362,10 +2500,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2375,10 +2513,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2388,10 +2526,10 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2401,10 +2539,10 @@
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2414,10 +2552,10 @@
         <v>31</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2427,13 +2565,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -2441,10 +2579,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F37" s="4"/>
     </row>
